--- a/Excel_luban/Datas/TipTextConfig.xlsx
+++ b/Excel_luban/Datas/TipTextConfig.xlsx
@@ -125,16 +125,10 @@
     </r>
   </si>
   <si>
-    <t>恭喜你,使用了跑马灯</t>
+    <t>恭喜你,使用了跑马灯,可以很长很长1234564567897894456123</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>根据安排</t>
     </r>
     <r>
@@ -207,7 +201,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日进行</t>
+      <t>日进行,请认真对待!</t>
     </r>
   </si>
 </sst>
@@ -1335,7 +1329,7 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
